--- a/biology/Médecine/Métabolite_organique_urinaire/Métabolite_organique_urinaire.xlsx
+++ b/biology/Médecine/Métabolite_organique_urinaire/Métabolite_organique_urinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolite_organique_urinaire</t>
+          <t>Métabolite_organique_urinaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les métabolites organiques urinaires (MOU) sont des produits du catabolisme non seulement des bactéries du tube digestif, mais également des champignons, tels les candida, qui peuvent y proliférer. Ils sont résorbés par les muqueuses intestinales, passent dans le sang puis sont éliminés par les reins. En cas de dysbiose, le spectre des métabolites excrétés se modifie. Les élévations de taux observées sont des éléments différentiels permettant d'orienter le diagnostic vers une dysbiose d'origine fongique ou bactérienne. Ce qui permet une approche thérapeutique ciblée. Le MOU permet aussi d’évaluer la restauration d’une flore normale en observant la retour au profil de base.
 Les différentes souches de bactéries qui constituent la flore intestinale au niveau du colon représentent environ 1 à 2 kilos. Il s'agit d'une communauté d'environ 100.000 milliards de micro-organismes qui résident, voire transitent, dans le tube digestif. Cela représente un métabolisme important qui équivaut à celui du foie. Ces bactéries produisent 100 fois plus de métabolites différents que notre corps peut en synthétiser. Ils sont donc importants pour notre santé. Mais lorsque le microbiote intestinal présente une dysbiose colique, des métabolites particuliers sont fabriqués en plus grandes quantités par certaines espèces bactériennes qui, de par leur prolifération, deviennent pathogènes. Il est donc important de pouvoir les détecter et les quantifier. 
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolite_organique_urinaire</t>
+          <t>Métabolite_organique_urinaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Le module fongique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le module fongique détecte la métabolisation des glucides par les levures et champignons. Il s'agit donc d'une flore saccharolytique.
 La fermentation a lieu principalement dans le colon droit et le colon transverse. Il s'agit d'une flore anaérobie, comprenant : lactobacilles, bifidobactéries et levures. En cas d'alimentation riche en FODMAP, à savoir des sucres fermentescibles tels que les fructo-oligo-saccharides ou FOS: pectine, gomme, guar, pomme, poire, choux, oignon, lentille, les galacto-oligo-saccharides, le lactose, le fructose et les polyols. 
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9tabolite_organique_urinaire</t>
+          <t>Métabolite_organique_urinaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Le module bactérien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le module bactérien détecte la métabolisation par des bactéries des acides aminés aromatiques tels que phénylalanine, tyrosine, tryptophane. Il s'agit donc d'une flore protéolytique, souvent due à la prolifération de germes de type clostridium, et qui est responsable de la putréfaction des protéines. 
 On dose les concentrations en : benzoate, hippurate, phénylacétate, phénylpropionate, cresol, hydroxybenzoate, hydroxyphénylacétate, hydroxyphénylpropionate et 3,4-dihydroxyphénylpropionate, indican, tricarballylate, D-lactate, and D-arabinitol.
